--- a/www/IndicatorsPerCountry/Mongolia_GDPperCapita_TerritorialRef_1946_2012_CCode_496.xlsx
+++ b/www/IndicatorsPerCountry/Mongolia_GDPperCapita_TerritorialRef_1946_2012_CCode_496.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mongolia_GDPperCapita_TerritorialRef_1946_2012_CCode_496.xlsx
+++ b/www/IndicatorsPerCountry/Mongolia_GDPperCapita_TerritorialRef_1946_2012_CCode_496.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,79 +36,34 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>742</t>
+    <t>677</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>741</t>
   </si>
   <si>
     <t>764</t>
   </si>
   <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>811</t>
+    <t>786</t>
+  </si>
+  <si>
+    <t>810</t>
   </si>
   <si>
     <t>835</t>
   </si>
   <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>886</t>
+    <t>859</t>
+  </si>
+  <si>
+    <t>885</t>
   </si>
   <si>
     <t>912</t>
@@ -117,100 +72,169 @@
     <t>939</t>
   </si>
   <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>997</t>
+    <t>966</t>
+  </si>
+  <si>
+    <t>996</t>
   </si>
   <si>
     <t>1027</t>
   </si>
   <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1175</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>1247</t>
-  </si>
-  <si>
-    <t>1282</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>1403</t>
-  </si>
-  <si>
-    <t>1332.10734963</t>
-  </si>
-  <si>
-    <t>1180.85855156</t>
-  </si>
-  <si>
-    <t>1046.61265927</t>
-  </si>
-  <si>
-    <t>997.589511834</t>
-  </si>
-  <si>
-    <t>1003.06250646</t>
-  </si>
-  <si>
-    <t>1046.16103851</t>
-  </si>
-  <si>
-    <t>1050.16207368</t>
-  </si>
-  <si>
-    <t>1073.55675338</t>
-  </si>
-  <si>
-    <t>1092.76789858</t>
-  </si>
-  <si>
-    <t>1075.46599396</t>
-  </si>
-  <si>
-    <t>1059.03053469</t>
-  </si>
-  <si>
-    <t>1043.08792481</t>
-  </si>
-  <si>
-    <t>1027.85408043</t>
-  </si>
-  <si>
-    <t>1013.2596574</t>
-  </si>
-  <si>
-    <t>1062.10969681</t>
-  </si>
-  <si>
-    <t>1046.75725071</t>
-  </si>
-  <si>
-    <t>1031.49391608</t>
-  </si>
-  <si>
-    <t>1016.33383992</t>
-  </si>
-  <si>
-    <t>1001.30804207</t>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1226</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1814</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2142</t>
+  </si>
+  <si>
+    <t>2168</t>
+  </si>
+  <si>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>2232</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>1976.02312025147</t>
+  </si>
+  <si>
+    <t>1841.01246368828</t>
+  </si>
+  <si>
+    <t>1846.22555388272</t>
+  </si>
+  <si>
+    <t>1955.4772619809</t>
+  </si>
+  <si>
+    <t>2147.82870249013</t>
+  </si>
+  <si>
+    <t>2271.798711275</t>
+  </si>
+  <si>
+    <t>2445.01267904292</t>
+  </si>
+  <si>
+    <t>2620.48905719967</t>
+  </si>
+  <si>
+    <t>2801.86181469282</t>
+  </si>
+  <si>
+    <t>2936.06277869726</t>
+  </si>
+  <si>
+    <t>3133.55591215071</t>
+  </si>
+  <si>
+    <t>3401.94645323707</t>
+  </si>
+  <si>
+    <t>3775.43793474293</t>
+  </si>
+  <si>
+    <t>4334.23138375912</t>
+  </si>
+  <si>
+    <t>4822.23356906816</t>
+  </si>
+  <si>
+    <t>5426.85360546919</t>
+  </si>
+  <si>
+    <t>6196.58922501625</t>
+  </si>
+  <si>
+    <t>6982.14643001293</t>
+  </si>
+  <si>
+    <t>7126.80870575009</t>
+  </si>
+  <si>
+    <t>7830.06414593609</t>
+  </si>
+  <si>
+    <t>9484</t>
+  </si>
+  <si>
+    <t>10493</t>
+  </si>
+  <si>
+    <t>11545</t>
+  </si>
+  <si>
+    <t>12283</t>
+  </si>
+  <si>
+    <t>12398</t>
+  </si>
+  <si>
+    <t>12360</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
